--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2528899.955347667</v>
+        <v>2644517.211179457</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111.2254363169658</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>161.5206846150008</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>132.7959433740181</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>51.9993329328142</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2686471287127267</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>227.6502902382272</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>161.5206846150008</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.946547210474533</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.30233087002041</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.34882234752214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>154.2397194319512</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>31.41974724925456</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>152.9671884733981</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.76608425465031</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288555</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
@@ -1263,7 +1265,7 @@
         <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>190.2932553761589</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.0528603905594</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -1339,10 +1341,10 @@
         <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>124.1627674274053</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3739644559493</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>102.1656705247866</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>219.2171213959165</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2639524613327</v>
+        <v>133.8410052537953</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881275</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>121.8455631377181</v>
       </c>
       <c r="T22" t="n">
-        <v>34.45703212904731</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>159.2661870898842</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>145.6718493954796</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.5271979141365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,13 +2848,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174137</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>137.4337101450035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4555778410736</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560547</v>
       </c>
     </row>
     <row r="33">
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>18.50276072357107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>150.086810802782</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.57619040703568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>221.1916634252473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>190.5970158126815</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>47.88058113793286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>139.5271979141361</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.7330060626392</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C2" t="n">
-        <v>153.3553494954612</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="D2" t="n">
-        <v>153.3553494954612</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>567.0983065247711</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298172</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298172</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X2" t="n">
-        <v>419.7330060626392</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.7330060626392</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.8187272956869</v>
+        <v>828.7593374478608</v>
       </c>
       <c r="C3" t="n">
-        <v>280.8187272956869</v>
+        <v>654.3063081667339</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956869</v>
+        <v>505.3718985054826</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>346.1344435000271</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>199.5998855269121</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>656.8855645212877</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>449.0340643157549</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.0340643157549</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.4139745374563</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C4" t="n">
-        <v>490.4777916095494</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D4" t="n">
-        <v>490.4777916095494</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735297</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735297</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735297</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735297</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.6853352735297</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>646.859700735818</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C5" t="n">
-        <v>416.9099126163966</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D5" t="n">
-        <v>416.9099126163966</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="E5" t="n">
-        <v>416.9099126163966</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>300.7206499575932</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>646.859700735818</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>646.859700735818</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>646.859700735818</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>646.859700735818</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.859700735818</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.9467308776107</v>
+        <v>405.0163449978175</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9467308776107</v>
+        <v>230.5633157166905</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776107</v>
+        <v>230.5633157166905</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>230.5633157166905</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>84.02875774357545</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N6" t="n">
         <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742759</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V6" t="n">
-        <v>629.9105956742759</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W6" t="n">
-        <v>375.6732389460743</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X6" t="n">
-        <v>375.6732389460743</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.9129401811203</v>
+        <v>573.2316820178855</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>744.414527010468</v>
+        <v>632.6801670429363</v>
       </c>
       <c r="C7" t="n">
-        <v>575.4783440825611</v>
+        <v>463.7439841150294</v>
       </c>
       <c r="D7" t="n">
-        <v>482.1967053476902</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="E7" t="n">
-        <v>482.1967053476902</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1967053476902</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="G7" t="n">
         <v>313.6273447026937</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407077</v>
+        <v>899.0578236101143</v>
       </c>
       <c r="W7" t="n">
-        <v>926.0629918407077</v>
+        <v>632.6801670429363</v>
       </c>
       <c r="X7" t="n">
-        <v>926.0629918407077</v>
+        <v>632.6801670429363</v>
       </c>
       <c r="Y7" t="n">
-        <v>926.0629918407077</v>
+        <v>632.6801670429363</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.900032935092</v>
+        <v>1361.859141172641</v>
       </c>
       <c r="C8" t="n">
-        <v>1842.900032935092</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="D8" t="n">
-        <v>1484.634334328342</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="E8" t="n">
-        <v>1098.846081730097</v>
+        <v>944.3337701408066</v>
       </c>
       <c r="F8" t="n">
-        <v>687.86017694049</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>272.1539549321571</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
         <v>117.6416433428661</v>
@@ -4802,13 +4804,13 @@
         <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
         <v>1219.647962995227</v>
@@ -4817,37 +4819,37 @@
         <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
         <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661165</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
         <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342785</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342785</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342785</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999214</v>
+        <v>2104.767128418567</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999214</v>
+        <v>1751.998473148453</v>
       </c>
       <c r="X8" t="n">
-        <v>2229.499872999214</v>
+        <v>1751.998473148453</v>
       </c>
       <c r="Y8" t="n">
-        <v>2229.499872999214</v>
+        <v>1361.859141172641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.50972080108</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.056691519953</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587017</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532462</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
         <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507236</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018229</v>
+        <v>298.0857543148181</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353043</v>
+        <v>592.6217377482996</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209606</v>
+        <v>955.688206222601</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682175</v>
+        <v>1589.42748940744</v>
       </c>
       <c r="O9" t="n">
-        <v>2101.342016867015</v>
+        <v>1966.043356600767</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888882</v>
+        <v>2213.078715030392</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442627</v>
+        <v>2536.272628442628</v>
       </c>
       <c r="R9" t="n">
         <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.8262802517</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.81647768535</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519836</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791635</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586102</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821148</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.5606145578456</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="C10" t="n">
-        <v>768.5606145578456</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="D10" t="n">
-        <v>618.4439751455099</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="E10" t="n">
-        <v>470.5308815631167</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="F10" t="n">
-        <v>470.5308815631167</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="H10" t="n">
         <v>157.0862549473602</v>
@@ -4987,25 +4989,25 @@
         <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412621</v>
+        <v>1336.515802634455</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.156055412621</v>
+        <v>1211.098865839096</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.037681907263</v>
+        <v>921.9804923337377</v>
       </c>
       <c r="V10" t="n">
-        <v>989.3531937013757</v>
+        <v>667.2960041278509</v>
       </c>
       <c r="W10" t="n">
-        <v>989.3531937013757</v>
+        <v>377.8788340908903</v>
       </c>
       <c r="X10" t="n">
-        <v>989.3531937013757</v>
+        <v>377.8788340908903</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.5606145578456</v>
+        <v>157.0862549473602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.700204330166</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.624977674364</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N15" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2074.122646505557</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2497.745796000626</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>802.9288273958739</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>652.8121879835381</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>2715.159942084666</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>3312.538429711218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>3940.136393265825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1904.493740652238</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V19" t="n">
-        <v>1649.809252446351</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W19" t="n">
-        <v>1360.39208240939</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X19" t="n">
-        <v>1132.402531511373</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5749,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,10 +5837,10 @@
         <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
         <v>1577.52840832642</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5911,49 +5913,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2323.886757178525</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.158000621627</v>
+        <v>2104.285292201466</v>
       </c>
       <c r="U22" t="n">
-        <v>2123.082773965825</v>
+        <v>1815.210065545664</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759938</v>
+        <v>1560.525577339777</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5987,52 +5989,52 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.901655850193</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168619</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
@@ -6230,46 +6232,46 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L27" t="n">
-        <v>2565.513299557012</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M27" t="n">
-        <v>3162.891787183563</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>3342.537229081861</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153954</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741619</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159226</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661315</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328844</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673042</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673042</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673042</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.396302956689</v>
+        <v>3744.978273055631</v>
       </c>
       <c r="Y28" t="n">
-        <v>1239.603723813159</v>
+        <v>3524.185693912101</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6460,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6494,7 +6496,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>3200.825397924058</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>3031.889214996151</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>2881.772575583815</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2733.859482001422</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2586.969534503512</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>2125.286319795768</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>2125.286319795768</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>3200.825397924058</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>3200.825397924058</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6691,25 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6725,22 +6727,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2680.685310603266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367897</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>336.3048548543966</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,37 +6940,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499466</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159224</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>4356.375478858768</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>4067.300252202966</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>3812.61576399708</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467153</v>
+        <v>3523.198593960119</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.581883569136</v>
+        <v>3295.209043062102</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329706</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192633</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687975</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.275442997055</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>982.2858920990373</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990373</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,49 +7402,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3195.64728158395</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656043</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243708</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661314</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650997</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4623.787448650997</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4334.712221995195</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4080.027733789309</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3790.610563752348</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3598.08832555772</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>3377.29574641419</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168625</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913854</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876693</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753335</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094455</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538081</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782321</v>
+        <v>45.18086586458338</v>
       </c>
       <c r="P9" t="n">
-        <v>73.41197433559893</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9647,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>115.0314858713389</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>44.26829212178254</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>32.92052192791147</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.92052192791149</v>
+        <v>152.3434691354488</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>59.18072286392645</v>
       </c>
       <c r="T22" t="n">
-        <v>182.948418198241</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>126.9182872993599</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>106.4657939283484</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.30478226780068</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97174018228472</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.2540775479635</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>40.23897475306271</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>67.31863952450627</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.0084629450591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>65.3313349113437</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>35.11263957635566</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.55338150863631</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>112.6104454096919</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
@@ -26320,40 +26322,40 @@
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="K2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580793</v>
+        <v>390680.0076580795</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.424380390350697e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911432</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101773</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
         <v>138058.053760893</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26433,31 +26435,31 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768827</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768885</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768867</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768817</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768843</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768943</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92902.867575679</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335740.3342347371</v>
+        <v>-335740.3342347373</v>
       </c>
       <c r="C6" t="n">
-        <v>344347.6463564562</v>
+        <v>344347.6463564561</v>
       </c>
       <c r="D6" t="n">
-        <v>35192.48689677534</v>
+        <v>35192.48689677511</v>
       </c>
       <c r="E6" t="n">
-        <v>26738.3735456359</v>
+        <v>26738.37354563593</v>
       </c>
       <c r="F6" t="n">
+        <v>534647.605606329</v>
+      </c>
+      <c r="G6" t="n">
+        <v>534647.6056063288</v>
+      </c>
+      <c r="H6" t="n">
+        <v>534647.6056063288</v>
+      </c>
+      <c r="I6" t="n">
         <v>534647.6056063289</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>465648.4511872148</v>
+      </c>
+      <c r="K6" t="n">
+        <v>534647.6056063294</v>
+      </c>
+      <c r="L6" t="n">
+        <v>439377.3678153117</v>
+      </c>
+      <c r="M6" t="n">
+        <v>401929.6299108602</v>
+      </c>
+      <c r="N6" t="n">
         <v>534647.6056063292</v>
       </c>
-      <c r="H6" t="n">
-        <v>534647.6056063294</v>
-      </c>
-      <c r="I6" t="n">
-        <v>534647.6056063292</v>
-      </c>
-      <c r="J6" t="n">
-        <v>465648.4511872151</v>
-      </c>
-      <c r="K6" t="n">
-        <v>534647.6056063292</v>
-      </c>
-      <c r="L6" t="n">
-        <v>439377.3678153111</v>
-      </c>
-      <c r="M6" t="n">
-        <v>401929.62991086</v>
-      </c>
-      <c r="N6" t="n">
-        <v>534647.6056063293</v>
-      </c>
       <c r="O6" t="n">
-        <v>534647.605606329</v>
+        <v>534647.6056063289</v>
       </c>
       <c r="P6" t="n">
         <v>534647.6056063289</v>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.292754720532816e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.292754720532816e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26725,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
         <v>933.7024595627831</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856962</v>
+        <v>640.1406900856963</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.292754720532816e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933048</v>
+        <v>319.647445793305</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139519</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015071</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139516</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.292754720532816e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>270.704933755296</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>251.3134900307091</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>3.226776212405383</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>199.6956502281054</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5633330532246</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>137.6226015327804</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>251.3134900307092</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.5866364393928</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>73.72038871640305</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.26665067069021</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27831,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>97.89792389187681</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>333.853144521753</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>148.0662857469023</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164528401</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.776449164528771</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.254393221146785</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>96.58872108293345</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-3.233100473372004e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30700,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31458,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547064</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.8560084902126</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>237.3557891543611</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,19 +32557,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>362.1804684129204</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,16 +33028,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338201</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>453.7122424932245</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33257,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,19 +33268,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409587</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>419.3361492447676</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>677.2750468965962</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
         <v>186.4616124758579</v>
@@ -35261,16 +35263,16 @@
         <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>640.1406900856963</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856962</v>
+        <v>380.4200678720474</v>
       </c>
       <c r="P9" t="n">
-        <v>322.9426394160277</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603487</v>
+        <v>326.4584983961978</v>
       </c>
       <c r="R9" t="n">
         <v>24.53548676783576</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748323</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.87423440419106</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>94.75954470991667</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462666</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36367,7 +36369,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>224.3390294385614</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36454,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M26" t="n">
         <v>735.300110790295</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>25.73094315394594</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>322.3705304098912</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610846</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37165,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>535.1410129745778</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2644517.211179457</v>
+        <v>2640212.871369588</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9026980.480056176</v>
+        <v>9026980.480056174</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>161.5206846150008</v>
+        <v>21.3187035390016</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>132.7959433740181</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>10.18456372565545</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.43224246993546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>55.33956034547415</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>161.5206846150008</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.30233087002041</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888211</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>154.2397194319512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>68.36004337105339</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>31.41974724925456</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>194.9747007711286</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>143.2927632288555</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115236</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.602666125651</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>124.1627674274053</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.7796819683725</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>106.3048907942296</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>219.2171213959165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>133.8410052537953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>121.8455631377181</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>145.6718493954796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>185.4555778410736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560547</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>150.086810802782</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>95.21019414968927</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>139.5271979141361</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739746</v>
+        <v>432.4256445709448</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739746</v>
+        <v>432.4256445709448</v>
       </c>
       <c r="D2" t="n">
-        <v>574.0438072739746</v>
+        <v>166.0479880037671</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739746</v>
+        <v>166.0479880037671</v>
       </c>
       <c r="F2" t="n">
-        <v>567.0983065247711</v>
+        <v>159.1024872545636</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052539</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515902</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.546376199131</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358405</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.544718794688</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>686.110662629816</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>432.4256445709448</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>432.4256445709448</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411526</v>
+        <v>432.4256445709448</v>
       </c>
       <c r="X2" t="n">
-        <v>574.0438072739746</v>
+        <v>432.4256445709448</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739746</v>
+        <v>432.4256445709448</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>828.7593374478608</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>654.3063081667339</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>505.3718985054826</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>346.1344435000271</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>199.5998855269121</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957458</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263949</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478608</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.4249251342374</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C4" t="n">
-        <v>255.4887422063304</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>105.3721027939947</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375327</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227036</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075532</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407066</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.275957251218</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>663.3774114477087</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>663.3774114477087</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>663.3774114477087</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>396.9997548805309</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8659691080072</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="Y4" t="n">
-        <v>606.0733899644771</v>
+        <v>169.0102039825136</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0438072739746</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067967</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067967</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067967</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>300.7206499575932</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739746</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739746</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.0438072739746</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.0163449978175</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>230.5633157166905</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>230.5633157166905</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>230.5633157166905</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>84.02875774357545</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178855</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>573.2316820178855</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>573.2316820178855</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>573.2316820178855</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>632.6801670429363</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>463.7439841150294</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="E7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="F7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434485</v>
@@ -4728,10 +4728,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4740,7 +4740,7 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>899.0578236101143</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>632.6801670429363</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>632.6801670429363</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>632.6801670429363</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1361.859141172641</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.122022739051</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.122022739051</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>473.8629779643921</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>62.8770731747846</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.1757437607437</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045951</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940601</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550204</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661166</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762138</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762138</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762138</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418567</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="W8" t="n">
-        <v>1751.998473148453</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="X8" t="n">
-        <v>1751.998473148453</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1361.859141172641</v>
+        <v>1973.47928617392</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.50972080108</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.056691519953</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587017</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532462</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993893</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>238.3188829507239</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148181</v>
+        <v>613.7598241331862</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482996</v>
+        <v>908.295807566668</v>
       </c>
       <c r="M9" t="n">
-        <v>955.688206222601</v>
+        <v>1271.36227604097</v>
       </c>
       <c r="N9" t="n">
-        <v>1589.42748940744</v>
+        <v>1658.44667851354</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600767</v>
+        <v>1990.33348850093</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030392</v>
+        <v>2237.368846930555</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442628</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251701</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751579</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519836</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791635</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586102</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821148</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.0862549473602</v>
+        <v>517.1540250450088</v>
       </c>
       <c r="C10" t="n">
-        <v>157.0862549473602</v>
+        <v>348.2178421171019</v>
       </c>
       <c r="D10" t="n">
-        <v>157.0862549473602</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="E10" t="n">
-        <v>157.0862549473602</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380155</v>
+        <v>76.63468308380182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368922</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904037</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412621</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634455</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1211.098865839096</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>921.9804923337377</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>667.2960041278509</v>
+        <v>1437.001789953757</v>
       </c>
       <c r="W10" t="n">
-        <v>377.8788340908903</v>
+        <v>1147.584619916796</v>
       </c>
       <c r="X10" t="n">
-        <v>377.8788340908903</v>
+        <v>919.5950690187786</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.0862549473602</v>
+        <v>698.8024898752485</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969311</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.402531511373</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2323.886757178525</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2104.285292201466</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.210065545664</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.525577339777</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.108407302816</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1541.24257163705</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1251.82540160009</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6238,40 +6238,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081861</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661315</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376195</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218393</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650998</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305902</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328844</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673042</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673042</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3932.255922673042</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055631</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912101</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924058</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.889214996151</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001422</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503512</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218392</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3200.825397924058</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3200.825397924058</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6940,16 +6940,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3113.560578231862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2944.624395303955</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4356.375478858768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4067.300252202966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3812.61576399708</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3523.198593960119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3295.209043062102</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3295.209043062102</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314351</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.6357307816187</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>793.6995478537118</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.284195611858</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7642,19 +7642,19 @@
         <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7681,10 +7681,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7693,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1547.449290305074</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.449290305074</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407056</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127194</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094448</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>192.7716614458208</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538081</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>45.18086586458338</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.11615722870167</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>32.92052192791147</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>152.3434691354488</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.18072286392645</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>106.4657939283484</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>40.2540775479635</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>67.31863952450627</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>53.40527886852308</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>112.6104454096919</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580795</v>
+        <v>390680.007658081</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.2320606916</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.424380390350697e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911432</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101817</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.053760893</v>
+        <v>138058.0537608926</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26438,28 +26438,28 @@
         <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768867</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768943</v>
+        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426618</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335740.3342347373</v>
+        <v>-335740.334234737</v>
       </c>
       <c r="C6" t="n">
-        <v>344347.6463564561</v>
+        <v>344347.6463564562</v>
       </c>
       <c r="D6" t="n">
-        <v>35192.48689677511</v>
+        <v>35192.48689677409</v>
       </c>
       <c r="E6" t="n">
-        <v>26738.37354563593</v>
+        <v>26390.99429128038</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.605606329</v>
+        <v>534300.226351972</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.6056063288</v>
+        <v>534300.2263519722</v>
       </c>
       <c r="H6" t="n">
-        <v>534647.6056063288</v>
+        <v>534300.226351972</v>
       </c>
       <c r="I6" t="n">
-        <v>534647.6056063289</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="J6" t="n">
-        <v>465648.4511872148</v>
+        <v>465301.0719328578</v>
       </c>
       <c r="K6" t="n">
-        <v>534647.6056063294</v>
+        <v>534300.2263519717</v>
       </c>
       <c r="L6" t="n">
-        <v>439377.3678153117</v>
+        <v>439029.9885609539</v>
       </c>
       <c r="M6" t="n">
-        <v>401929.6299108602</v>
+        <v>401582.2506565034</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.6056063292</v>
+        <v>534300.226351972</v>
       </c>
       <c r="O6" t="n">
-        <v>534647.6056063289</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="P6" t="n">
-        <v>534647.6056063289</v>
+        <v>534300.2263519719</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.292754720532816e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.292754720532816e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856963</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.292754720532816e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793305</v>
+        <v>319.6474457933061</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015071</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.292754720532816e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917704</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3134900307091</v>
+        <v>391.5154711067084</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.226776212405383</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>136.9653716865433</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>63.00172017663371</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>167.8747855340917</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508509</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>251.3134900307092</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>136.6720035995079</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,10 +27706,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>73.72038871640305</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>97.89792389187681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>218.1629549655376</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>333.853144521753</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>132.7775576990063</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.776449164528401</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.77644916452283</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>96.58872108293345</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.35796135545553</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-3.233100473372004e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547064</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M36" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877683</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458908</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089033</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35035,7 +35035,7 @@
         <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127591</v>
+        <v>188.997603781685</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758579</v>
+        <v>379.233273921679</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856963</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>380.4200678720474</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961978</v>
+        <v>326.4584983961981</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783576</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748323</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394594</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M36" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2640212.871369588</v>
+        <v>2641973.401672374</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.3187035390016</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.18456372565545</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>86.8698490460397</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>55.33956034547415</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>227.441508411047</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015059</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C5" t="n">
         <v>263.7138800015061</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.875953774682731</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>68.36004337105339</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>354.5423391153702</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>194.9747007711286</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592503</v>
       </c>
       <c r="H9" t="n">
         <v>92.83909691614504</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.602666125651</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>196.7796819683725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>31.36886701938507</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710047</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766881</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>106.3048907942296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085811999</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2371,13 +2371,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576156</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187862</v>
+        <v>409.803338518786</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>19.91555826188027</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9367233701397</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.4256445709448</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>432.4256445709448</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0479880037671</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037671</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>159.1024872545636</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052539</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515902</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.59818340306</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.546376199131</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358405</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.544718794688</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.110662629816</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709448</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709448</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709448</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709448</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709448</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4397,61 +4397,61 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957458</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263949</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1026.232198106091</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1026.232198106091</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>1026.232198106091</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.232198106091</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.232198106091</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
         <v>818.4718993411373</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0102039825136</v>
+        <v>337.9463869104205</v>
       </c>
       <c r="C4" t="n">
         <v>169.0102039825136</v>
@@ -4473,22 +4473,22 @@
         <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287946</v>
@@ -4497,43 +4497,43 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375327</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227036</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075532</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407066</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.275957251218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>663.3774114477087</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>663.3774114477087</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>663.3774114477087</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="W4" t="n">
-        <v>396.9997548805309</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="X4" t="n">
-        <v>169.0102039825136</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.0102039825136</v>
+        <v>337.9463869104205</v>
       </c>
     </row>
     <row r="5">
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>198.4551434940583</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>24.00211421293133</v>
       </c>
       <c r="D6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>782.2822794846131</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>574.4307792790803</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>366.6704805141264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466806</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434485</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434485</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>985.8049711463747</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>757.8154202483573</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0228411048272</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>1575.07150439913</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>1206.108987458718</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>1206.108987458718</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643921</v>
+        <v>820.3207348604737</v>
       </c>
       <c r="F8" t="n">
-        <v>62.8770731747846</v>
+        <v>409.3348300708662</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J8" t="n">
         <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607437</v>
+        <v>442.1757437607438</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045951</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
         <v>1655.591685209589</v>
@@ -4825,31 +4825,31 @@
         <v>2359.356530550204</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.56462266117</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342791</v>
+        <v>2351.810676439063</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342791</v>
+        <v>2351.810676439063</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.618618149732</v>
+        <v>2351.810676439063</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.618618149732</v>
+        <v>2351.810676439063</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.618618149732</v>
+        <v>2351.810676439063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.47928617392</v>
+        <v>1961.671344463251</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.509720801085</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.056691519958</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587067</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532512</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801362</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993893</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507239</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331862</v>
+        <v>298.0857543148188</v>
       </c>
       <c r="L9" t="n">
-        <v>908.295807566668</v>
+        <v>592.6217377483008</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.36227604097</v>
+        <v>1208.393778287032</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.44667851354</v>
+        <v>1842.133061471872</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.33348850093</v>
+        <v>2174.019871459262</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930555</v>
+        <v>2421.055229888887</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342791</v>
+        <v>2536.272628442633</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251706</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685355</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751584</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519841</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.33685679164</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586107</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821153</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.1540250450088</v>
+        <v>939.7609172812159</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2178421171019</v>
+        <v>770.8247343533091</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1012027047662</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047662</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685582</v>
+        <v>473.818147443063</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685582</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685582</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380182</v>
+        <v>76.63468308380179</v>
       </c>
       <c r="K10" t="n">
         <v>248.2500215676574</v>
@@ -4998,16 +4998,16 @@
         <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1437.001789953757</v>
+        <v>1381.084657271478</v>
       </c>
       <c r="W10" t="n">
-        <v>1147.584619916796</v>
+        <v>1349.398933009473</v>
       </c>
       <c r="X10" t="n">
-        <v>919.5950690187786</v>
+        <v>1121.409382111456</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8024898752485</v>
+        <v>1121.409382111456</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5026,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="12">
@@ -5108,28 +5108,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>424.993875127789</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,34 +5889,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6074,13 +6074,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,19 +6171,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1202.091371290588</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6882,19 +6882,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
         <v>1202.091371290588</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6943,22 +6943,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7022,16 +7022,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,16 +7259,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7584,13 +7584,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R43" t="n">
         <v>2426.846358063199</v>
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127194</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094448</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458208</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004331</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538086</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392193955</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>39.11615722870167</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>46.45968844824142</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5874149221291134</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806903</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520043</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658081</v>
+        <v>390680.0076580808</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606916</v>
+        <v>507909.2320606913</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.628001667112221e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191142</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>95270.23779101817</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
         <v>138058.0537608926</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321769105</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768952</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768899</v>
-      </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768741</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426618</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567911</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335740.334234737</v>
+        <v>-335740.3342347372</v>
       </c>
       <c r="C6" t="n">
         <v>344347.6463564562</v>
       </c>
       <c r="D6" t="n">
-        <v>35192.48689677409</v>
+        <v>35192.48689677425</v>
       </c>
       <c r="E6" t="n">
-        <v>26390.99429128038</v>
+        <v>26703.63562020181</v>
       </c>
       <c r="F6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808933</v>
       </c>
       <c r="G6" t="n">
-        <v>534300.2263519722</v>
+        <v>534612.8676808929</v>
       </c>
       <c r="H6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808933</v>
       </c>
       <c r="I6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808929</v>
       </c>
       <c r="J6" t="n">
-        <v>465301.0719328578</v>
+        <v>465613.713261779</v>
       </c>
       <c r="K6" t="n">
-        <v>534300.2263519717</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="L6" t="n">
-        <v>439029.9885609539</v>
+        <v>439342.6298898748</v>
       </c>
       <c r="M6" t="n">
-        <v>401582.2506565034</v>
+        <v>401894.8919854244</v>
       </c>
       <c r="N6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808929</v>
       </c>
       <c r="O6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808928</v>
       </c>
       <c r="P6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808933</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>933.7024595627843</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856978</v>
+        <v>640.1406900856975</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.784091799837756e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933061</v>
+        <v>319.647445793306</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.2730407788893</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841915</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.784091799837756e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841915</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917704</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.5154711067084</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>216.5268221531692</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>136.9653716865433</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>118.9031361574378</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>167.8747855340917</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>24.69613491278102</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.6720035995079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>144.569111789956</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>218.1629549655376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>57.00682067287926</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
@@ -27906,13 +27906,13 @@
         <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>132.7775576990063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164523399</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77644916452283</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>55.35796135545553</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>255.1541313172059</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.857851886174416e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-9.784091799837756e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-9.784091799837756e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.077880779948793e-11</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33742,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877683</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458908</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.997603781685</v>
+        <v>62.90656844127614</v>
       </c>
       <c r="K9" t="n">
-        <v>379.233273921679</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
         <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>621.9919601401322</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>640.1406900856975</v>
       </c>
       <c r="O9" t="n">
         <v>335.2392020074646</v>
@@ -35272,10 +35272,10 @@
         <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961981</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783592</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060346</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
